--- a/bd.xlsx
+++ b/bd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AC2CB22-9143-4053-AC6F-178CB46BE73F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E767679A-FD49-4F9A-9555-E2595266DC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{9E8C4CD2-65E0-4CF2-961B-05D7AF6BED34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9E8C4CD2-65E0-4CF2-961B-05D7AF6BED34}"/>
   </bookViews>
   <sheets>
     <sheet name="Usuários" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>UserID</t>
   </si>
@@ -61,9 +61,6 @@
     <t>Materia</t>
   </si>
   <si>
-    <t>Estatudo do Idoso</t>
-  </si>
-  <si>
     <t>É possível aplicar a Lei Maria da Penha em favor da pessoa idosa? Apenas a mulher?</t>
   </si>
   <si>
@@ -113,6 +110,12 @@
   </si>
   <si>
     <t>Nome</t>
+  </si>
+  <si>
+    <t>Teste2</t>
+  </si>
+  <si>
+    <t>Resposta do teste 2</t>
   </si>
 </sst>
 </file>
@@ -542,10 +545,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAB0C81-6837-4C32-A429-8698F85B3729}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -578,13 +581,27 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -597,7 +614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE230898-1417-43E9-ADEF-DA9B1A1FAA0F}">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -608,77 +625,77 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" thickBot="1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" thickBot="1">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/bd.xlsx
+++ b/bd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pablo\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E767679A-FD49-4F9A-9555-E2595266DC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E772E7-E381-46BD-AA78-2800CF32AAF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{9E8C4CD2-65E0-4CF2-961B-05D7AF6BED34}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
   <si>
     <t>UserID</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Resposta do teste 2</t>
+  </si>
+  <si>
+    <t>Teste3</t>
+  </si>
+  <si>
+    <t>Teste4</t>
+  </si>
+  <si>
+    <t>Teste5</t>
   </si>
 </sst>
 </file>
@@ -545,10 +554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAB0C81-6837-4C32-A429-8698F85B3729}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -602,6 +611,48 @@
       </c>
       <c r="F3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4">
+        <v>33333</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5">
+        <v>4444</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>5555</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
